--- a/deliverable3/burndown_chart/Burndown_Chart.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Desktop\f16\CSCC01\team25-Project\deliverable3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Desktop\f16\CSCC01\team25-Project\deliverable3\burndown_chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -657,16 +657,22 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1034,7 +1040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1239,7 +1245,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,7 +1315,7 @@
         <v>96</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1329,7 +1335,7 @@
         <v>96</v>
       </c>
       <c r="G4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1349,7 +1355,7 @@
         <v>96</v>
       </c>
       <c r="G5">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1369,7 +1375,7 @@
         <v>96</v>
       </c>
       <c r="G6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1388,6 +1394,9 @@
       <c r="F7">
         <v>83.5</v>
       </c>
+      <c r="G7">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1403,6 +1412,9 @@
         <v>42666</v>
       </c>
       <c r="F8">
+        <v>71</v>
+      </c>
+      <c r="G8">
         <v>71</v>
       </c>
     </row>

--- a/deliverable3/burndown_chart/Burndown_Chart.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -674,6 +674,57 @@
                 <c:pt idx="6">
                   <c:v>71</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -903,7 +954,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1244,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1434,6 +1491,9 @@
       <c r="F9">
         <v>68.551724137931032</v>
       </c>
+      <c r="G9">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1451,6 +1511,9 @@
       <c r="F10">
         <v>66.103448275862064</v>
       </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -1468,6 +1531,9 @@
       <c r="F11">
         <v>63.655172413793089</v>
       </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
@@ -1485,6 +1551,9 @@
       <c r="F12">
         <v>61.206896551724121</v>
       </c>
+      <c r="G12">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
@@ -1502,6 +1571,9 @@
       <c r="F13">
         <v>58.758620689655146</v>
       </c>
+      <c r="G13">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1519,6 +1591,9 @@
       <c r="F14">
         <v>56.310344827586178</v>
       </c>
+      <c r="G14">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1536,6 +1611,9 @@
       <c r="F15">
         <v>53.86206896551721</v>
       </c>
+      <c r="G15">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -1553,8 +1631,11 @@
       <c r="F16">
         <v>51.413793103448242</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1570,8 +1651,11 @@
       <c r="F17">
         <v>48.965517241379267</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1587,8 +1671,11 @@
       <c r="F18">
         <v>46.517241379310299</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1604,8 +1691,11 @@
       <c r="F19">
         <v>44.068965517241324</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1621,8 +1711,11 @@
       <c r="F20">
         <v>41.620689655172356</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1637,40 +1730,55 @@
       <c r="F21">
         <v>39.172413793103388</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E22" s="2">
         <v>42680</v>
       </c>
       <c r="F22">
         <v>36.72413793103442</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E23" s="2">
         <v>42681</v>
       </c>
       <c r="F23">
         <v>34.275862068965445</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" s="2">
         <v>42682</v>
       </c>
       <c r="F24">
         <v>31.827586206896477</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="2">
         <v>42683</v>
       </c>
       <c r="F25">
         <v>29.379310344827509</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E26" s="2">
         <v>42684</v>
       </c>
@@ -1678,7 +1786,7 @@
         <v>26.931034482758534</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E27" s="2">
         <v>42685</v>
       </c>
@@ -1686,7 +1794,7 @@
         <v>24.482758620689566</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E28" s="2">
         <v>42686</v>
       </c>
@@ -1694,7 +1802,7 @@
         <v>22.034482758620598</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E29" s="2">
         <v>42687</v>
       </c>
@@ -1702,7 +1810,7 @@
         <v>19.586206896551623</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" s="2">
         <v>42688</v>
       </c>
@@ -1710,7 +1818,7 @@
         <v>17.137931034482655</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E31" s="2">
         <v>42689</v>
       </c>
@@ -1718,7 +1826,7 @@
         <v>14.689655172413687</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" s="2">
         <v>42690</v>
       </c>

--- a/deliverable3/burndown_chart/Burndown_Chart.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart.xlsx
@@ -684,46 +684,46 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,7 +1552,7 @@
         <v>61.206896551724121</v>
       </c>
       <c r="G12">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>58.758620689655146</v>
       </c>
       <c r="G13">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1592,7 +1592,7 @@
         <v>56.310344827586178</v>
       </c>
       <c r="G14">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1612,7 +1612,7 @@
         <v>53.86206896551721</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1632,7 +1632,7 @@
         <v>51.413793103448242</v>
       </c>
       <c r="G16">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1652,7 +1652,7 @@
         <v>48.965517241379267</v>
       </c>
       <c r="G17">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1672,7 +1672,7 @@
         <v>46.517241379310299</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>44.068965517241324</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1712,7 +1712,7 @@
         <v>41.620689655172356</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>39.172413793103388</v>
       </c>
       <c r="G21">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1742,7 +1742,7 @@
         <v>36.72413793103442</v>
       </c>
       <c r="G22">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>34.275862068965445</v>
       </c>
       <c r="G23">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1764,7 +1764,7 @@
         <v>31.827586206896477</v>
       </c>
       <c r="G24">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>29.379310344827509</v>
       </c>
       <c r="G25">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">

--- a/deliverable3/burndown_chart/Burndown_Chart.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart.xlsx
@@ -438,55 +438,55 @@
                   <c:v>41.620689655172356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.172413793103388</c:v>
+                  <c:v>39.172413793103402</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.72413793103442</c:v>
+                  <c:v>36.724137931034399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.275862068965445</c:v>
+                  <c:v>34.275862068965402</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.827586206896477</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.379310344827509</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.931034482758534</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.482758620689566</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.034482758620598</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.586206896551623</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.137931034482655</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.689655172413687</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.241379310344712</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.793103448275744</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.344827586206776</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.896551724137808</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4482758620688401</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.4210854715202004E-13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,46 +684,58 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,6 +991,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E1:G37" totalsRowShown="0">
+  <autoFilter ref="E1:G37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="DATE" dataDxfId="0"/>
+    <tableColumn id="2" name="ANTICIPATED REMAINING"/>
+    <tableColumn id="3" name="ACTUAL REMAINING"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
@@ -987,18 +1011,6 @@
     <tableColumn id="3" name="SPRINT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E1:G37" totalsRowShown="0">
-  <autoFilter ref="E1:G37"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="DATE" dataDxfId="0"/>
-    <tableColumn id="2" name="ANTICIPATED REMAINING"/>
-    <tableColumn id="3" name="ACTUAL REMAINING"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1301,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,7 +1564,7 @@
         <v>61.206896551724121</v>
       </c>
       <c r="G12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1572,7 +1584,7 @@
         <v>58.758620689655146</v>
       </c>
       <c r="G13">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1592,7 +1604,7 @@
         <v>56.310344827586178</v>
       </c>
       <c r="G14">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1612,7 +1624,7 @@
         <v>53.86206896551721</v>
       </c>
       <c r="G15">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1632,7 +1644,7 @@
         <v>51.413793103448242</v>
       </c>
       <c r="G16">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1652,7 +1664,7 @@
         <v>48.965517241379267</v>
       </c>
       <c r="G17">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1672,7 +1684,7 @@
         <v>46.517241379310299</v>
       </c>
       <c r="G18">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1692,7 +1704,7 @@
         <v>44.068965517241324</v>
       </c>
       <c r="G19">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1712,7 +1724,7 @@
         <v>41.620689655172356</v>
       </c>
       <c r="G20">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1728,10 +1740,10 @@
         <v>42679</v>
       </c>
       <c r="F21">
-        <v>39.172413793103388</v>
+        <v>39.172413793103402</v>
       </c>
       <c r="G21">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1739,10 +1751,10 @@
         <v>42680</v>
       </c>
       <c r="F22">
-        <v>36.72413793103442</v>
+        <v>36.724137931034399</v>
       </c>
       <c r="G22">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1750,10 +1762,10 @@
         <v>42681</v>
       </c>
       <c r="F23">
-        <v>34.275862068965445</v>
+        <v>34.275862068965402</v>
       </c>
       <c r="G23">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1761,10 +1773,10 @@
         <v>42682</v>
       </c>
       <c r="F24">
-        <v>31.827586206896477</v>
+        <v>32</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1772,10 +1784,10 @@
         <v>42683</v>
       </c>
       <c r="F25">
-        <v>29.379310344827509</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1783,7 +1795,10 @@
         <v>42684</v>
       </c>
       <c r="F26">
-        <v>26.931034482758534</v>
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1791,7 +1806,10 @@
         <v>42685</v>
       </c>
       <c r="F27">
-        <v>24.482758620689566</v>
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1799,7 +1817,10 @@
         <v>42686</v>
       </c>
       <c r="F28">
-        <v>22.034482758620598</v>
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1807,7 +1828,10 @@
         <v>42687</v>
       </c>
       <c r="F29">
-        <v>19.586206896551623</v>
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1815,7 +1839,7 @@
         <v>42688</v>
       </c>
       <c r="F30">
-        <v>17.137931034482655</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1823,7 +1847,7 @@
         <v>42689</v>
       </c>
       <c r="F31">
-        <v>14.689655172413687</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1831,7 +1855,7 @@
         <v>42690</v>
       </c>
       <c r="F32">
-        <v>12.241379310344712</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.35">
@@ -1839,7 +1863,7 @@
         <v>42691</v>
       </c>
       <c r="F33">
-        <v>9.793103448275744</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.35">
@@ -1847,7 +1871,7 @@
         <v>42692</v>
       </c>
       <c r="F34">
-        <v>7.344827586206776</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.35">
@@ -1855,7 +1879,7 @@
         <v>42693</v>
       </c>
       <c r="F35">
-        <v>4.896551724137808</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.35">
@@ -1863,7 +1887,7 @@
         <v>42694</v>
       </c>
       <c r="F36">
-        <v>2.4482758620688401</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.35">
@@ -1871,7 +1895,7 @@
         <v>42695</v>
       </c>
       <c r="F37">
-        <v>-1.4210854715202004E-13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
